--- a/data/trans_dic/P25D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R-Habitat-trans_dic.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,99</t>
+          <t>0,0; 4,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,32</t>
+          <t>0,0; 1,96</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,04</t>
+          <t>0,0; 2,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,75</t>
+          <t>0,07; 0,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,21</t>
+          <t>0,13; 1,14</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,76</t>
+          <t>0,31; 1,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,04</t>
+          <t>0,42; 2,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,49</t>
+          <t>0,5; 1,49</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,29</t>
+          <t>0,37; 3,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,91</t>
+          <t>0,3; 1,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,03</t>
+          <t>0,54; 2,04</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,06</t>
+          <t>1,01; 3,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,12</t>
+          <t>0,32; 1,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,82</t>
+          <t>0,75; 1,83</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,74</t>
+          <t>0,81; 1,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,05</t>
+          <t>0,47; 1,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,23</t>
+          <t>0,7; 1,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P25D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P25D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,35</t>
+          <t>0,0; 3,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,96</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>0,0; 2,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,79</t>
+          <t>0,07; 0,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,14</t>
+          <t>0,13; 1,21</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,63</t>
+          <t>0,31; 1,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,1</t>
+          <t>0,45; 2,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,49</t>
+          <t>0,53; 1,49</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,25</t>
+          <t>0,4; 3,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,97</t>
+          <t>0,27; 1,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,04</t>
+          <t>0,52; 2,03</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,09</t>
+          <t>1,07; 3,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,11</t>
+          <t>0,32; 1,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,83</t>
+          <t>0,8; 1,82</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,73</t>
+          <t>0,76; 1,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,06</t>
+          <t>0,47; 1,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,23</t>
+          <t>0,67; 1,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P25D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,44%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,99</t>
+          <t>0,14; 1,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>0,0; 0,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,32</t>
+          <t>0,16; 1,13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,77%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,04</t>
+          <t>0,18; 1,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,75</t>
+          <t>0,44; 2,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,21</t>
+          <t>0,42; 1,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,95%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,76</t>
+          <t>0,41; 3,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,04</t>
+          <t>0,18; 1,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,49</t>
+          <t>0,45; 1,91</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,29</t>
+          <t>1,08; 3,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,91</t>
+          <t>0,3; 1,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,03</t>
+          <t>0,76; 1,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>0,86%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,06</t>
+          <t>0,69; 1,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,12</t>
+          <t>0,41; 0,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,82</t>
+          <t>0,62; 1,16</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,17%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,76; 1,74</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 1,05</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 1,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P25D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,91</t>
+          <t>0,14; 1,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,6</t>
+          <t>0,06; 0,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,13</t>
+          <t>0,15; 1,02</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,36</t>
+          <t>0,18; 1,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,04</t>
+          <t>0,41; 1,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,33</t>
+          <t>0,39; 1,32</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,56</t>
+          <t>0,42; 3,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,62</t>
+          <t>0,25; 1,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,91</t>
+          <t>0,5; 1,93</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,16</t>
+          <t>1,03; 3,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,06</t>
+          <t>0,31; 1,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,84</t>
+          <t>0,76; 1,8</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,68</t>
+          <t>0,69; 1,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,98</t>
+          <t>0,42; 0,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,16</t>
+          <t>0,63; 1,16</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma diariamente cigarrillos electrónicos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4286</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1464</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5750</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>868; 12549</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>377; 4114</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1981; 13363</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7800</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8732</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16532</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2191; 17601</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3926; 17928</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8352; 28475</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8608</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15640</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2946; 24323</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2372; 15431</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8184; 31623</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16717</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6513</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>23230</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9428; 28560</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3409; 11341</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15341; 36184</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>37411</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>23740</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>61151</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>23831; 57128</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15475; 35432</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>44527; 82700</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>